--- a/biology/Botanique/Crataegus_chrysocarpa/Crataegus_chrysocarpa.xlsx
+++ b/biology/Botanique/Crataegus_chrysocarpa/Crataegus_chrysocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crataegus chrysocarpa (aussi appelé aubépine dorée, aubépine à pommes dorées et aubépine de Jack) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un arbuste originaire d'Amérique du Nord (États-Unis, Canada).
 Synonymes
@@ -519,17 +531,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est un arbuste, ou un petit arbre, pouvant atteindre 6 m de hauteur[1],[2]. Le tronc est plutôt tortueux, parfois buissonnant, et la cime est généralement basse.
-Les feuilles, caduques, ont une forme simple et une disposition alterne. De forme rhomboïdale arrondie, légèrement lobées, elles mesurent 4 cm de long environ[2]. Leur bordure est doublement dentée. Elles sont portées par un pétiole velu, glanduleux et présentant à sa base deux stipules dentées[2].
-Les bourgeons, d'un brun rougeâtre luisant, sont recouverts de 5 à 10 écailles. Les bourgeons axillaires sont légèrement plus petits que les bourgeons terminaux, et contrairement à ces derniers, ils se présentent assez souvent par groupe de 2 ou 3, avec un d'entre eux qui pourra donner une épine[2].
-Les rameaux sont de deux sortes : soit de longues pousses portant feuilles et épines, ces dernières étant lisses et luisantes, dures et acérées, longues d’environ 6 cm et de couleur brun noirâtre[2], soit des pousses courtes pouvant porter feuilles et fleurs (puis fruits). Ces rameaux ont une couleur variable, grise ou brun-orangé.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste, ou un petit arbre, pouvant atteindre 6 m de hauteur,. Le tronc est plutôt tortueux, parfois buissonnant, et la cime est généralement basse.
+Les feuilles, caduques, ont une forme simple et une disposition alterne. De forme rhomboïdale arrondie, légèrement lobées, elles mesurent 4 cm de long environ. Leur bordure est doublement dentée. Elles sont portées par un pétiole velu, glanduleux et présentant à sa base deux stipules dentées.
+Les bourgeons, d'un brun rougeâtre luisant, sont recouverts de 5 à 10 écailles. Les bourgeons axillaires sont légèrement plus petits que les bourgeons terminaux, et contrairement à ces derniers, ils se présentent assez souvent par groupe de 2 ou 3, avec un d'entre eux qui pourra donner une épine.
+Les rameaux sont de deux sortes : soit de longues pousses portant feuilles et épines, ces dernières étant lisses et luisantes, dures et acérées, longues d’environ 6 cm et de couleur brun noirâtre, soit des pousses courtes pouvant porter feuilles et fleurs (puis fruits). Ces rameaux ont une couleur variable, grise ou brun-orangé.
 Le bois est dur et peut être utilisé pour la sculpture ou le travail au tour à bois.
-Appareil reproducteur
-Les fleurs apparaissent à la fin du printemps, en même temps que les feuilles. Les inflorescences sont des grappes aplaties qui se forment à l’extrémité des pousses courtes. Les fleurs sont blanches ou rosées et dégagent une odeur douce mais assez désagréable. Chaque fleur présente 5 sépales verdâtres, 5 pétales blancs ou parfois rosés, de 5 à 25 étamines et de 1 à 5 pistils[2].
-Les fruits sont des baies comestibles, globuleuses et peu charnues.  D'un rouge soutenu ou plus rarement jaune, ils mesurent de 10 à 15 mm de largeur et contiennent de 1 à 5 graines[2]. Ces fruits et leur pédoncule sont couverts d'un duvet rare et très court. Ils persistent généralement sur l'arbre durant l'hiver.
-			Crataegus chrysocarpa var. chrysocarpa, arbuste en fleurs à Montréal, au Québec.
-			Crataegus chrysocarpa var. chrysocarpa en fruits, récolté à Laval, au Québec.
 </t>
         </is>
       </c>
@@ -555,12 +567,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Originaire d'Amérique du Nord (Canada, États-Unis), cette aubépine préfère les sols riches en calcium et des lieux exposés à la lumière. On la trouve par exemple dans des friches, bords de cours d’eau ou clairières.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs apparaissent à la fin du printemps, en même temps que les feuilles. Les inflorescences sont des grappes aplaties qui se forment à l’extrémité des pousses courtes. Les fleurs sont blanches ou rosées et dégagent une odeur douce mais assez désagréable. Chaque fleur présente 5 sépales verdâtres, 5 pétales blancs ou parfois rosés, de 5 à 25 étamines et de 1 à 5 pistils.
+Les fruits sont des baies comestibles, globuleuses et peu charnues.  D'un rouge soutenu ou plus rarement jaune, ils mesurent de 10 à 15 mm de largeur et contiennent de 1 à 5 graines. Ces fruits et leur pédoncule sont couverts d'un duvet rare et très court. Ils persistent généralement sur l'arbre durant l'hiver.
+			Crataegus chrysocarpa var. chrysocarpa, arbuste en fleurs à Montréal, au Québec.
+			Crataegus chrysocarpa var. chrysocarpa en fruits, récolté à Laval, au Québec.
 </t>
         </is>
       </c>
@@ -586,15 +607,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire d'Amérique du Nord (Canada, États-Unis), cette aubépine préfère les sols riches en calcium et des lieux exposés à la lumière. On la trouve par exemple dans des friches, bords de cours d’eau ou clairières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Crataegus_chrysocarpa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crataegus_chrysocarpa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie et systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Histoire du taxon
-Cette espèce a été scientifiquement décrite pour la première fois en 1900 par le botaniste américain William Willard Ashe, dans North Carolina Agricultural Experiment Station Bulletin[3].
-Liste des variétés
-Selon Catalogue of Life                                   (3 nov. 2012)[4] :
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Histoire du taxon</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été scientifiquement décrite pour la première fois en 1900 par le botaniste américain William Willard Ashe, dans North Carolina Agricultural Experiment Station Bulletin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Crataegus_chrysocarpa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crataegus_chrysocarpa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie et systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (3 nov. 2012) :
 variété Crataegus chrysocarpa var. aboriginum
 variété Crataegus chrysocarpa var. blanchardii
 variété Crataegus chrysocarpa var. chrysocarpa
